--- a/01_基本設計書/20191231リリース/SC-M12_車種マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M12_車種マスタ.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\マスタ\20191018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71280444-234E-41A0-8E28-4054960D1825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF91944-9631-4CA8-8A24-5EB65DC2E1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,9 +1815,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>英数字チェック</t>
+      <t>半角英数字チェック</t>
     </r>
-    <rPh sb="21" eb="24">
+    <rPh sb="21" eb="23">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
       <t>エイスウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -8972,7 +8975,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
